--- a/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/frieght_calculations-actual_port-first_leg.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/frieght_calcs_to_actual_nominated_port/actual_price_determination_from_CBIX_price/frieght_calculations-actual_port-first_leg.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>329.22</v>
+        <v>329.2199999999999</v>
       </c>
       <c r="E2" t="n">
         <v>84714</v>
@@ -501,7 +501,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -540,7 +540,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>94064.31505879021</v>
+        <v>94064.31505879022</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -559,7 +559,7 @@
         <v>37945.54469471597</v>
       </c>
       <c r="F5" t="n">
-        <v>53606.97308400624</v>
+        <v>53606.97308400625</v>
       </c>
     </row>
     <row r="6">
@@ -573,7 +573,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -645,7 +645,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -717,7 +717,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -745,7 +745,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>189.0410658016682</v>
+        <v>189.0410658016681</v>
       </c>
       <c r="E13" t="n">
         <v>19939.45010812479</v>
@@ -789,7 +789,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -813,7 +813,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -837,7 +837,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -948,50 +948,50 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>180000</v>
+        <v>60000.00000000001</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>303.03</v>
+        <v>198.27</v>
       </c>
       <c r="E22" t="n">
-        <v>72612</v>
+        <v>24204</v>
       </c>
       <c r="F22" t="n">
-        <v>98199</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>303.03</v>
+        <v>198.27</v>
       </c>
       <c r="E23" t="n">
-        <v>72612</v>
+        <v>24204</v>
       </c>
       <c r="F23" t="n">
-        <v>98199</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="24">
@@ -1029,7 +1029,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -1068,26 +1068,26 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>180000</v>
+        <v>60000</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>303.03</v>
+        <v>198.27</v>
       </c>
       <c r="E27" t="n">
-        <v>72612</v>
+        <v>24204</v>
       </c>
       <c r="F27" t="n">
-        <v>98199</v>
+        <v>35931</v>
       </c>
     </row>
     <row r="28">
@@ -1132,7 +1132,7 @@
         <v>188.302955465587</v>
       </c>
       <c r="E29" t="n">
-        <v>19598.38056680161</v>
+        <v>19598.38056680162</v>
       </c>
       <c r="F29" t="n">
         <v>30006.71659919028</v>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D30" t="n">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D31" t="n">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D32" t="n">
@@ -1236,50 +1236,42 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>74270.5570291777</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Panamax</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>210.7281962864721</v>
+        <v>145.89</v>
       </c>
       <c r="E34" t="n">
-        <v>29960.74270557028</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>43335.99204244031</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0</v>
+        <v>180000</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Handysize</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Handysize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>145.89</v>
+        <v>303.03</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>72612</v>
       </c>
       <c r="F35" t="n">
-        <v>4797</v>
+        <v>98199</v>
       </c>
     </row>
     <row r="36">
@@ -1293,7 +1285,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D36" t="n">
@@ -1317,7 +1309,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D37" t="n">
@@ -1332,26 +1324,18 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>180000</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>303.03</v>
+        <v>145.89</v>
       </c>
       <c r="E38" t="n">
-        <v>72612</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>98199</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="39">
@@ -1365,7 +1349,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -1389,7 +1373,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D40" t="n">
@@ -1413,7 +1397,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D41" t="n">
@@ -1437,7 +1421,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D42" t="n">
@@ -1452,26 +1436,18 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>180000</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Capesize</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>303.03</v>
+        <v>145.89</v>
       </c>
       <c r="E43" t="n">
-        <v>72612</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>98199</v>
+        <v>4797</v>
       </c>
     </row>
     <row r="44">
@@ -1485,7 +1461,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D44" t="n">
@@ -1500,50 +1476,114 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>180000</v>
+        <v>78632.4786324786</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Capesize</t>
+          <t>Panamax</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>303.03</v>
+        <v>214.5361538461538</v>
       </c>
       <c r="E45" t="n">
-        <v>72612</v>
+        <v>31720.34188034186</v>
       </c>
       <c r="F45" t="n">
-        <v>98199</v>
+        <v>45599.39316239315</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>78632.4786324786</v>
+        <v>180000</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Capesize</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Panamax</t>
+          <t>Suezmax</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>214.5361538461538</v>
+        <v>303.03</v>
       </c>
       <c r="E46" t="n">
-        <v>31720.34188034186</v>
+        <v>72612</v>
       </c>
       <c r="F46" t="n">
-        <v>45599.39316239315</v>
+        <v>98199</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>39886.0398860399</v>
+      </c>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="n">
+        <v>180.7105128205128</v>
+      </c>
+      <c r="E47" t="n">
+        <v>16090.0284900285</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25493.86609686611</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>180000</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Capesize</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Suezmax</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>303.03</v>
+      </c>
+      <c r="E48" t="n">
+        <v>72612</v>
+      </c>
+      <c r="F48" t="n">
+        <v>98199</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>180000</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Capesize</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Suezmax</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>303.03</v>
+      </c>
+      <c r="E49" t="n">
+        <v>72612</v>
+      </c>
+      <c r="F49" t="n">
+        <v>98199</v>
       </c>
     </row>
   </sheetData>
